--- a/biology/Botanique/Erigeron/Erigeron.xlsx
+++ b/biology/Botanique/Erigeron/Erigeron.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Erigeron est un genre de plantes à fleurs de la famille des Asteraceae qui regroupe plus de 400 espèces. Il est cosmopolite, mais la plus grande diversité spécifique se rencontre en Amérique du Nord.
 </t>
@@ -511,10 +523,12 @@
           <t>Étymologie et dénominations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre porte en français plusieurs noms communs : « Érigéron », « Vergerette » ainsi que, à Mayotte et La Réunion, « Conyse », « Conisa » et « Conise »[1] (le genre Conyza ayant été placé en synonymie).
-Le nom scientifique Erigeron (francisé en « Érigéron ») dérive du nom grec du séneçon, ἠριγέρων (êrigérôn), formé du radical ἦρι (êri) « tôt, de bonne heure » et de γέρων (gérôn) « vieillard », et qui signifie littéralement « qui vieillit tôt »[2]. Le nom latin de la même plante, sĕnĕcĭo, s'explique de la même façon car il dérive du latin sĕnex « vieux », faisant référence aux capitules fructifiés en akènes dont les aigrettes blanches du pappus leur donnent l'apparence de petites têtes de vieillards couvertes de cheveux blancs. Le nom vernaculaire de « Vergerette » est un diminutif de « verge », dérivé du latin virga, allusion aux rameaux souples et flexibles[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre porte en français plusieurs noms communs : « Érigéron », « Vergerette » ainsi que, à Mayotte et La Réunion, « Conyse », « Conisa » et « Conise » (le genre Conyza ayant été placé en synonymie).
+Le nom scientifique Erigeron (francisé en « Érigéron ») dérive du nom grec du séneçon, ἠριγέρων (êrigérôn), formé du radical ἦρι (êri) « tôt, de bonne heure » et de γέρων (gérôn) « vieillard », et qui signifie littéralement « qui vieillit tôt ». Le nom latin de la même plante, sĕnĕcĭo, s'explique de la même façon car il dérive du latin sĕnex « vieux », faisant référence aux capitules fructifiés en akènes dont les aigrettes blanches du pappus leur donnent l'apparence de petites têtes de vieillards couvertes de cheveux blancs. Le nom vernaculaire de « Vergerette » est un diminutif de « verge », dérivé du latin virga, allusion aux rameaux souples et flexibles.
 </t>
         </is>
       </c>
@@ -543,13 +557,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les différentes espèces peuvent être annuelles, bisannuelles ou vivaces. Ce sont des plantes présentant une tige dressée pourvue de nombreux rameaux, caractérisée par leurs nombreux capitules à cœur jaune entouré de rayons blancs, couleur lavande ou roses. Quelques espèces présentent des capitules dépourvus de ligules. Le pappus (calice modifié formant une couronne) est plus court que dans le genre Aster, et se trouve réduit à des poils. Les ligules sont plus étroites que chez le genre Aster, mais dépassent largement l'involucre de bractées.
 Quelques espèces sont utilisées comme plantes ornementales, avec de nombreux cultivars tels (en anglais) 'Wayne Roderick', 'Charity', 'Dunkelste Aller' et 'Foersters Liebling'.
 Certains Erigeron sont plantes hôtes de plusieurs espèces de chenilles de Lépidoptères dont Bucculatrix angustata et Coleophora squamosella.
-Plantes bioindicatrices
-Les Érigérons sont des plantes bioindicatrices de l'état des sols : elles indiquent le compactage des sols limoneux par battance sous l'impact du splash, du travail du sol ou de l'instabilité du  sol mal structuré compte tenu du pourcentage important en éléments fins (limons, sablons)[4].
 </t>
         </is>
       </c>
@@ -575,12 +589,51 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Plantes bioindicatrices</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Érigérons sont des plantes bioindicatrices de l'état des sols : elles indiquent le compactage des sols limoneux par battance sous l'impact du splash, du travail du sol ou de l'instabilité du  sol mal structuré compte tenu du pourcentage important en éléments fins (limons, sablons).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Erigeron</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Erigeron</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Liste des espèces sur le territoire français</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon l'INPN      (24 juillet 2023)[1] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon l'INPN      (24 juillet 2023) :
 Erigeron acris L., 1753
 Erigeron alpinus L., 1753 - Vergerette des Alpes
 Erigeron annuus (L.) Desf., 1804 - Vergerette annuelle
@@ -624,33 +677,35 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Erigeron</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Erigeron</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon la Global Compositae Database       (24 juillet 2023)[5] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon la Global Compositae Database       (24 juillet 2023) :
 Erigeron abajoensis Cronquist
 Erigeron acer L.
 Erigeron acris L.
@@ -1088,33 +1143,35 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Erigeron</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Erigeron</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Erigeron a pour synonymes[5] :
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Erigeron a pour synonymes :
 Achaetogeron A.Gray
 Asterigeron Rydb.
 Astradelphus J.Rémy
